--- a/arknights_npc.xlsx
+++ b/arknights_npc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\arknights_npc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCD419D-1BFF-4789-B6D8-18D1046EBF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DF3C9-5415-4D59-A900-D27C3889050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="482">
   <si>
     <t>剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1677,10 +1677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光头马丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>塑料骑士瑟奇亚克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1754,6 +1750,214 @@
   </si>
   <si>
     <t>斐尔迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“说书人”煮伞先生（夕）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉子虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴耶勒王酋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米亚罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥克芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮加尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stormeye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河刃小队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽锤小队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉莉娅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万尼亚大公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊斯拉姆·维特子爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文森特伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老伊辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“追猎者”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金猎人A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金猎人B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老何塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐风主教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安妮塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩特拉奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大审判官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首言者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎黛拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德罗斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛骑士薇薇安娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱维尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光头马丁（颤铁马丁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊奥莱塔·罗素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱姆，“银枪的天马”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄开俄波利斯，“血骑士”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓拉，逐魇骑士，“最后的怯薛”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休露丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菈塔托丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤卡坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大长老</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2780,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1131B065-24F2-4274-B061-65A558888276}">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2804,13 +3008,18 @@
     <col min="16" max="16" width="11.21875" style="2" customWidth="1"/>
     <col min="17" max="17" width="18.88671875" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.21875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="2"/>
+    <col min="19" max="19" width="19.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="2"/>
+    <col min="21" max="21" width="17.6640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="11.21875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="19.6640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.21875" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="19.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="23.21875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="30.5546875" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3137,10 +3346,31 @@
         <v>400</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
@@ -3163,10 +3393,31 @@
         <v>401</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -3192,7 +3443,25 @@
         <v>409</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
@@ -3215,10 +3484,28 @@
         <v>403</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
@@ -3244,7 +3531,25 @@
         <v>410</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
@@ -3267,7 +3572,19 @@
         <v>405</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>411</v>
+        <v>472</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
@@ -3290,7 +3607,19 @@
         <v>406</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -3310,7 +3639,19 @@
         <v>407</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -3321,7 +3662,19 @@
         <v>408</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
@@ -3329,7 +3682,13 @@
         <v>377</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
@@ -3337,7 +3696,10 @@
         <v>378</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
@@ -3345,32 +3707,32 @@
         <v>379</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M16" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M18" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/arknights_npc.xlsx
+++ b/arknights_npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\arknights_npc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DF3C9-5415-4D59-A900-D27C3889050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E0B49-D446-409E-8903-B9E330EFB096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="500">
   <si>
     <t>剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1958,6 +1958,78 @@
   </si>
   <si>
     <t>大长老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿克托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦莱丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光的姐姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光的哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮萍雨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜遥夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁洵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“二哥”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“岁相”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槐天裴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁辞秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚冢，挑山人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑清钺，郑掌柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2985,7 +3057,7 @@
   <dimension ref="A1:AX19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3091,9 @@
     <col min="27" max="27" width="23.21875" style="2" customWidth="1"/>
     <col min="28" max="28" width="15.6640625" style="2" customWidth="1"/>
     <col min="29" max="29" width="30.5546875" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="30" max="30" width="12.21875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3372,6 +3446,9 @@
       <c r="AC3" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="AE3" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3419,6 +3496,9 @@
       <c r="AC4" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="AE4" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3463,6 +3543,9 @@
       <c r="AC5" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="AE5" s="2" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3507,6 +3590,9 @@
       <c r="AC6" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="AE6" s="2" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3551,6 +3637,9 @@
       <c r="AC7" s="2" t="s">
         <v>481</v>
       </c>
+      <c r="AE7" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3586,6 +3675,12 @@
       <c r="AA8" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="AC8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3621,6 +3716,12 @@
       <c r="AA9" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="AC9" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3653,6 +3754,12 @@
       <c r="AA10" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="AC10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
@@ -3676,6 +3783,12 @@
       <c r="AA11" s="2" t="s">
         <v>474</v>
       </c>
+      <c r="AC11" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
@@ -3690,6 +3803,12 @@
       <c r="W12" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="AC12" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -3701,6 +3820,9 @@
       <c r="W13" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="AC13" s="2" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -3709,10 +3831,16 @@
       <c r="M14" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="AC14" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
         <v>420</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">

--- a/arknights_npc.xlsx
+++ b/arknights_npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\arknights_npc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E0B49-D446-409E-8903-B9E330EFB096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C9548-A860-4009-A886-92FF850CDE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="541">
   <si>
     <t>剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2030,6 +2030,170 @@
   </si>
   <si>
     <t>郑清钺，郑掌柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞茜莉亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇尔丽芙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕蒂娅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎伦·弗朗西斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾缪安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里凯莱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安多恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费莉亚·拉珀尔塔，塞茜莉亚母亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗塞菈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗骑士，铳骑吉奥瓦尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗，伊万杰利斯塔十一世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗骑士，铳骑泰尔瓦多莱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗骑士，铳骑保拉里奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒂亚戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿玛雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡门·伊比利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌尔比安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布雷奥甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“最后的骑士”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗辛南特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠谕者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿方索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格特鲁德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“爷爷”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白垩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌尔苏拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔图罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女皇之声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉赫曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别格勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里斯滕·莱特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechanist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“唤醒”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔海雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛肯·威廉姆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕尔维斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3056,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1131B065-24F2-4274-B061-65A558888276}">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3093,7 +3257,15 @@
     <col min="29" max="29" width="30.5546875" style="2" customWidth="1"/>
     <col min="30" max="30" width="12.21875" style="2" customWidth="1"/>
     <col min="31" max="31" width="14.21875" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="2"/>
+    <col min="32" max="32" width="8.88671875" style="2"/>
+    <col min="33" max="33" width="29.21875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="21.21875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="8.88671875" style="2"/>
+    <col min="37" max="37" width="23.88671875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="2"/>
+    <col min="39" max="39" width="18.88671875" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3449,6 +3621,18 @@
       <c r="AE3" s="2" t="s">
         <v>490</v>
       </c>
+      <c r="AG3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3499,6 +3683,18 @@
       <c r="AE4" s="2" t="s">
         <v>491</v>
       </c>
+      <c r="AG4" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3546,6 +3742,18 @@
       <c r="AE5" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="AG5" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3593,6 +3801,18 @@
       <c r="AE6" s="2" t="s">
         <v>492</v>
       </c>
+      <c r="AG6" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3640,6 +3860,18 @@
       <c r="AE7" s="2" t="s">
         <v>493</v>
       </c>
+      <c r="AG7" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3681,6 +3913,18 @@
       <c r="AE8" s="2" t="s">
         <v>498</v>
       </c>
+      <c r="AG8" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3722,6 +3966,18 @@
       <c r="AE9" s="2" t="s">
         <v>494</v>
       </c>
+      <c r="AG9" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3760,6 +4016,18 @@
       <c r="AE10" s="2" t="s">
         <v>495</v>
       </c>
+      <c r="AG10" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
@@ -3789,6 +4057,15 @@
       <c r="AE11" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="AG11" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
@@ -3809,6 +4086,12 @@
       <c r="AE12" s="2" t="s">
         <v>497</v>
       </c>
+      <c r="AG12" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -3823,6 +4106,9 @@
       <c r="AC13" s="2" t="s">
         <v>487</v>
       </c>
+      <c r="AG13" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -3834,6 +4120,9 @@
       <c r="AC14" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="AG14" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
@@ -3842,10 +4131,16 @@
       <c r="AC15" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="AG15" s="2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M16" s="2" t="s">
         <v>421</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">

--- a/arknights_npc.xlsx
+++ b/arknights_npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\arknights_npc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C9548-A860-4009-A886-92FF850CDE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092C1347-591C-4CD1-A8C2-4164A1C90457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="555">
   <si>
     <t>剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全副武装的男性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>近卫干员（Guard）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,42 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孩童</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌萨斯军警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合运动成员A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合运动成员B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合运动士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视主持人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌萨斯军警队长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麒麟X夜刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,10 +909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W（敌方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魏彦吾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1229,14 +1189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整合运动A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合运动B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pith</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,10 +1209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泥岩（敌方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈的蛇上司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1517,22 +1465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男游客A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男游客B（大鲍勃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女游客A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女游客C（陈）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赫尔曼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,10 +1685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“说书人”煮伞先生（夕）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1853,10 +1781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赏金猎人B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老何塞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2194,6 +2118,138 @@
   </si>
   <si>
     <t>帕尔维斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“说书人”煮伞先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤塔（鳄鱼人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶奇·地心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡奇·叙光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克罗绮·砖石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黛柯绮·银币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬奇·画布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝纳尔多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉维妮娅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西西里夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔贝托·萨卢佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文索内希俄斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德米特里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢比奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦拉赫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹布朗，洗车工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡特琳娜/乔万娜·罗塞蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿涅塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿格尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢比奥之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弑君者的老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“外婆”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃里克伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威廉姆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞尔蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“校官”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开斯特公爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威灵顿公爵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2551,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2567,17 +2623,17 @@
     <col min="8" max="8" width="11.21875" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29" style="2" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.5546875" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.21875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="25.33203125" style="2" customWidth="1"/>
     <col min="22" max="22" width="11.21875" style="2" customWidth="1"/>
     <col min="23" max="23" width="15.77734375" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.21875" style="2" customWidth="1"/>
@@ -2725,31 +2781,31 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2757,31 +2813,31 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2789,31 +2845,31 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2821,392 +2877,359 @@
         <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>366</v>
+      <c r="Q23" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2" t="s">
+    <row r="24" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K25" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K26" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>367</v>
-      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>368</v>
+    <row r="28" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K28" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K21" s="2" t="s">
+    <row r="29" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K29" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K23" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K24" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K25" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K26" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K27" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K28" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K29" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3220,15 +3243,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1131B065-24F2-4274-B061-65A558888276}">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="2" customWidth="1"/>
@@ -3238,7 +3261,7 @@
     <col min="10" max="10" width="16.44140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="39.5546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.21875" style="2" customWidth="1"/>
     <col min="15" max="15" width="25.44140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="2" customWidth="1"/>
@@ -3252,20 +3275,30 @@
     <col min="24" max="24" width="11.21875" style="2" customWidth="1"/>
     <col min="25" max="25" width="19.33203125" style="2" customWidth="1"/>
     <col min="26" max="26" width="17.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="23.21875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="29.77734375" style="2" customWidth="1"/>
     <col min="28" max="28" width="15.6640625" style="2" customWidth="1"/>
     <col min="29" max="29" width="30.5546875" style="2" customWidth="1"/>
     <col min="30" max="30" width="12.21875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="14.21875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" style="2"/>
-    <col min="33" max="33" width="29.21875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="34.88671875" style="2" customWidth="1"/>
     <col min="34" max="34" width="12.6640625" style="2" customWidth="1"/>
     <col min="35" max="35" width="21.21875" style="2" customWidth="1"/>
     <col min="36" max="36" width="8.88671875" style="2"/>
     <col min="37" max="37" width="23.88671875" style="2" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="2"/>
+    <col min="38" max="38" width="16.5546875" style="2" customWidth="1"/>
     <col min="39" max="39" width="18.88671875" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="2"/>
+    <col min="40" max="40" width="16.77734375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="24" style="2" customWidth="1"/>
+    <col min="42" max="42" width="20.33203125" style="2" customWidth="1"/>
+    <col min="43" max="43" width="26.21875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="8.88671875" style="2"/>
+    <col min="45" max="45" width="24.5546875" style="2" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" style="2"/>
+    <col min="47" max="47" width="22.44140625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="2"/>
+    <col min="49" max="49" width="20.88671875" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3273,151 +3306,151 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3574,588 +3607,663 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>533</v>
+      <c r="AQ3" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="AI4" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AM4" s="2" t="s">
-        <v>534</v>
+      <c r="AQ4" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="AI5" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="AK5" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>535</v>
+      <c r="AO5" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="AI6" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AM6" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="AK6" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>536</v>
+      <c r="AO6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="AI7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM7" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="AK7" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>537</v>
+      <c r="AO7" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="AI8" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM8" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AK8" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>538</v>
+      <c r="AQ8" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AA9" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="AG9" s="2" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="AI9" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM9" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="AK9" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>539</v>
+      <c r="AQ9" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="AI10" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM10" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="AK10" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>540</v>
+      <c r="AQ10" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>532</v>
+        <v>513</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>377</v>
+      <c r="K12" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>523</v>
+        <v>504</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>507</v>
+        <v>488</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="M14" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>509</v>
+        <v>490</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>512</v>
+        <v>493</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M16" s="2" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>513</v>
+        <v>494</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:43" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
-        <v>422</v>
+        <v>405</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:43" x14ac:dyDescent="0.25">
       <c r="M18" s="2" t="s">
-        <v>423</v>
+        <v>406</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:43" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="s">
-        <v>424</v>
+        <v>407</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4207,85 +4315,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4423,859 +4531,859 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DN1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="CY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="DC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DV1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="DI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="DK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ED1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="DM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DN1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="DO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="DQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="DS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="DU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="DW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="DY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EB1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EL1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FD1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FH1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="EQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="ES1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ET1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FL1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="EU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EV1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FN1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="EW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EX1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FP1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FR1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FT1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FV1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FX1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GB1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FL1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GD1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FN1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GF1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FP1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GH1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FR1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FX1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GL1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GN1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="GA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="GC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="GE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="GG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="GI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="GK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="GM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GN1" s="1" t="s">
+      <c r="HE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GP1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="GQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="GS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="GU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="GW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="GY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="HA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="HC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="HE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="HG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="HI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="HK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="HM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="HO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="HQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="s">
+      <c r="II1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="HS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="HU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="HW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="HY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="IA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="IC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="IE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="IG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="II1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="IK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="IM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="IO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="IQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="IU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="IW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="IY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="JA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="JC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="JE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="JG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="KA1" s="1" t="s">
         <v>0</v>
@@ -6193,67 +6301,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6326,7 +6434,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6378,43 +6486,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6510,19 +6618,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -6552,13 +6660,13 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>

--- a/arknights_npc.xlsx
+++ b/arknights_npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\arknights_npc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092C1347-591C-4CD1-A8C2-4164A1C90457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937325EA-6AF6-4BAA-B135-3873F6867AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线剧情" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="644">
   <si>
     <t>剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（疑似）普瑞塞斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医疗干员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1329,10 +1325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特蕾茜娅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曼弗雷德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2250,6 +2242,370 @@
   </si>
   <si>
     <t>威灵顿公爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨尔贡打扮的游客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千夫长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录武官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左宣辽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟铁衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“女侠”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏生义冈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利藤裕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏生明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泷居未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泷居应（露华村村长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨科塔老猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒檀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格瑞斯教官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕维尔·尼古拉耶维奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼古拉·伊万诺夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛班（苦艾爸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达丽雅（苦艾妈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦列里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕娥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧银（玛佩尔·格林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保罗·兰登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐风主教昆图斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加勒斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛蒙诺上校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“萨卡兹佣兵”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“奶奶”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍恩洛厄伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎诺特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨卡兹锅炉工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨卡兹谋反者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（疑似）普瑞赛斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰拉德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前任白金大位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉姆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昂斯特议员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威纶奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹顿兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝希曼伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“逐尘者”艾尔瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍妮特·朗费罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞克·格雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切斯柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马雷克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑟莉娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽诺·舍尔文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄洛夫伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿洛希亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比丢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“老板”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十七的前主人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑咻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方小石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇白爹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇白母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周顺（村长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖山人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某巨兽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2607,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2778,458 +3134,458 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>601</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K16" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K21" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="11:21" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3243,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1131B065-24F2-4274-B061-65A558888276}">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3651,7 @@
     <col min="44" max="44" width="8.88671875" style="2"/>
     <col min="45" max="45" width="24.5546875" style="2" customWidth="1"/>
     <col min="46" max="46" width="8.88671875" style="2"/>
-    <col min="47" max="47" width="22.44140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="21.21875" style="2" customWidth="1"/>
     <col min="48" max="48" width="8.88671875" style="2"/>
     <col min="49" max="49" width="20.88671875" style="2" customWidth="1"/>
     <col min="50" max="16384" width="8.88671875" style="2"/>
@@ -3306,151 +3662,151 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3607,663 +3963,717 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="AQ3" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="AC4" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AO5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AQ5" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="AS5" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="K11" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="K12" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M13" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="M16" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="13:43" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="13:43" x14ac:dyDescent="0.25">
       <c r="M18" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="13:43" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4275,39 +4685,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24CDE2A-79F9-46FF-89C3-535F3A2A4510}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="17.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="14.5546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="16.109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="18.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="14.5546875" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.21875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="2"/>
+    <col min="19" max="19" width="18.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="2"/>
+    <col min="21" max="21" width="18.21875" style="2" customWidth="1"/>
     <col min="22" max="22" width="11.21875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="18.21875" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.21875" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="15.44140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="2"/>
+    <col min="27" max="27" width="15" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4315,85 +4728,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4480,6 +4893,281 @@
       </c>
       <c r="AB2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S10" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S11" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S12" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S13" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S14" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S15" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4531,859 +5219,859 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="DK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DN1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="DM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="DQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DV1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="DU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ED1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="FE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FH1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="FG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FL1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FN1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FP1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FR1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FT1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FV1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FX1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GB1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="GA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GD1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="GC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GF1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="GE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GH1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="GG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="GI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="GK1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="GL1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GN1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="GM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="GO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="GQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="s">
+      <c r="GS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="GS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="s">
+      <c r="GU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="GU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="GW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="s">
+      <c r="GY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="GY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="HA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="HC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="HE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="HG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="HI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="HK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="HM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="HO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="HQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="HS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="HU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="HW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="HY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="IA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="IC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="IE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="IG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="s">
+      <c r="II1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="II1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="IK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="IM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="IO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="IQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="IU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="IW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="IY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="JA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="JC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="JE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="JG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="JI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="JK1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="JM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="JO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="JQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="JS1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="JU1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="JW1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="KA1" s="1" t="s">
         <v>0</v>
@@ -6301,67 +6989,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6434,7 +7122,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6486,43 +7174,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6618,19 +7306,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -6660,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
